--- a/test_speeches/predictions/Coding_Differneces_5_AI.xlsx
+++ b/test_speeches/predictions/Coding_Differneces_5_AI.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K298"/>
+  <dimension ref="A1:L299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,64 +436,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Sentence</t>
+          <t>sentence</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Metaphor/Simile</t>
+          <t>label</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Metaphor/Similie</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Rhetorical questions</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Stories / anecdotes</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Stories/Anecdotes</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Contrasts</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lists / Repetition </t>
-        </is>
-      </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Moral conviction</t>
+          <t>Lists</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Sentiment of the collective</t>
+          <t>Repetition</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Ambitious goals / Setting high expectations</t>
+          <t>Moral_conviction</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Confidence in goals</t>
+          <t>Sentiment_of_the_collective</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Setting_high_expectations</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>We still want you to stay at home.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
         <v>0</v>
       </c>
@@ -516,23 +517,26 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>I know that that sounds like we give that message too often.</t>
+          <t>We still want you to stay at home.</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -550,32 +554,35 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>But I drove to the capital today, I mentioned that I often do deliveries in Albuquerque to my family on the doorstep and I go see my mother via a window.</t>
+          <t>I know that that sounds like we give that message too often.</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -593,20 +600,23 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>A wave.</t>
+          <t>But I drove to the capital today, I mentioned that I often do deliveries in Albuquerque to my family on the doorstep and I go see my mother via a window.</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -630,16 +640,19 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>I can see, everyone can see there’s national aggregate data that shows you where people are traveling.</t>
+          <t>A wave.</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -655,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -667,16 +680,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>People are traveling.</t>
+          <t>I can see, everyone can see there’s national aggregate data that shows you where people are traveling.</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -704,16 +720,19 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>A virus needs you to travel to transmit.</t>
+          <t>People are traveling.</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -741,16 +760,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>You catch it, you give it.</t>
+          <t>A virus needs you to travel to transmit.</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -763,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -778,20 +800,23 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>We don’t want you to do that.</t>
+          <t>You catch it, you give it.</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -806,29 +831,32 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>We’re staying the instruction to remain in place except for these essential services.</t>
+          <t>We don’t want you to do that.</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -846,22 +874,25 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>All right.</t>
+          <t>We’re staying the instruction to remain in place except for these essential services.</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -889,23 +920,26 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>What else remains closed.</t>
+          <t>All right.</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -926,32 +960,35 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Offices, workspaces and retailers, except for the exceptions.</t>
+          <t>What else remains closed.</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -963,20 +1000,23 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>If you can’t do curbside or delivery and it’s not an appointment, only exception, they’re still closed.</t>
+          <t>Offices, workspaces and retailers, except for the exceptions.</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -988,10 +1028,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1000,20 +1040,23 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dining in restaurants and bars except for curbside delivery are also still closed.</t>
+          <t>If you can’t do curbside or delivery and it’s not an appointment, only exception, they’re still closed.</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1025,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1037,20 +1080,23 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>I’ll tell you what we believe based on the contact and the time you spend there, which Dr. Scrase is going to talk about.</t>
+          <t>Dining in restaurants and bars except for curbside delivery are also still closed.</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1074,16 +1120,19 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>We made these decisions not based on the business, but based on the safety of the public and the safety of the employees there.</t>
+          <t>I’ll tell you what we believe based on the contact and the time you spend there, which Dr. Scrase is going to talk about.</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -1096,13 +1145,13 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1111,20 +1160,23 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>We’ll show you how we did that using an evidence-based model.</t>
+          <t>We made these decisions not based on the business, but based on the safety of the public and the safety of the employees there.</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -1136,28 +1188,31 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
       </c>
       <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Here’s what’s still unsafe and closed, indoor malls, gyms, salons, theaters and casinos.</t>
+          <t>We’ll show you how we did that using an evidence-based model.</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -1173,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1185,20 +1240,23 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Mass gatherings, still prohibited.</t>
+          <t>Here’s what’s still unsafe and closed, indoor malls, gyms, salons, theaters and casinos.</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -1213,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1222,16 +1280,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>And the 14-day quarantine order remains in place for all out of state airport arrivals.</t>
+          <t>Mass gatherings, still prohibited.</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -1259,16 +1320,19 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Next slide.</t>
+          <t>And the 14-day quarantine order remains in place for all out of state airport arrivals.</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -1296,23 +1360,26 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>So how do we then move to the next phase.</t>
+          <t>Next slide.</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -1333,26 +1400,29 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Well, we’re going to continue to use the modeling by the medical advisory team.</t>
+          <t>So how do we then move to the next phase.</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -1370,16 +1440,19 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>So you’re going to hear more about that, but we analyze the spread of the virus.</t>
+          <t>Well, we’re going to continue to use the modeling by the medical advisory team.</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -1407,23 +1480,26 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Where is it.</t>
+          <t>So you’re going to hear more about that, but we analyze the spread of the virus.</t>
         </is>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -1432,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1444,23 +1520,26 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>How quickly is it spreading.</t>
+          <t>Where is it.</t>
         </is>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -1481,23 +1560,26 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>What are those rates and ratios.</t>
+          <t>How quickly is it spreading.</t>
         </is>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -1518,16 +1600,19 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>And that’s how we’ll keep making decisions.</t>
+          <t>What are those rates and ratios.</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1555,23 +1640,26 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>So can you help.</t>
+          <t>And that’s how we’ll keep making decisions.</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -1592,26 +1680,29 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>You bet you can.</t>
+          <t>So can you help.</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -1626,23 +1717,26 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>The more you restrict, even with opening.</t>
+          <t>You bet you can.</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -1651,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -1663,23 +1757,26 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>And we do want to ease the relaxing of these restrictions, we hope is good for business.</t>
+          <t>The more you restrict, even with opening.</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -1703,20 +1800,23 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>We hope it’s good for individuals too.</t>
+          <t>And we do want to ease the relaxing of these restrictions, we hope is good for business.</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -1731,29 +1831,32 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
       </c>
       <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>We have to marry these safe personal practices where we’ll see a spike that’s not anticipated.</t>
+          <t>We hope it’s good for individuals too.</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -1774,23 +1877,26 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>And that’s when you’re not prepared.</t>
+          <t>We have to marry these safe personal practices where we’ll see a spike that’s not anticipated.</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -1808,22 +1914,25 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
       </c>
       <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Emergency preparedness means knowing what’s going to happen.</t>
+          <t>And that’s when you’re not prepared.</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1851,16 +1960,19 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>We are going to see more cases even without relaxing restrictions.</t>
+          <t>Emergency preparedness means knowing what’s going to happen.</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1876,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1888,20 +2000,23 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>We’re still in that phase where we’re going to see increased cases.</t>
+          <t>We are going to see more cases even without relaxing restrictions.</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -1916,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -1925,16 +2040,19 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>We want to keep them below a certain percentage.</t>
+          <t>We’re still in that phase where we’re going to see increased cases.</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1959,19 +2077,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>We see how they’re transmitting, what that rate is, where it is.</t>
+          <t>We want to keep them below a certain percentage.</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1987,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1999,16 +2120,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>As long as that curve statewide still is flattened, then we think that we can make these decisions safely, which is why we are.</t>
+          <t>We see how they’re transmitting, what that rate is, where it is.</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -2027,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -2036,20 +2160,23 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>We have to continue having adequate and stable testing and that’s measured by the department of health.</t>
+          <t>As long as that curve statewide still is flattened, then we think that we can make these decisions safely, which is why we are.</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -2067,22 +2194,25 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Quite frankly, we have a lot of partners doing testing now, actual testing and running the tests.</t>
+          <t>We have to continue having adequate and stable testing and that’s measured by the department of health.</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -2098,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2110,20 +2240,23 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>But the department of health is leading that effort.</t>
+          <t>Quite frankly, we have a lot of partners doing testing now, actual testing and running the tests.</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -2135,7 +2268,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2147,16 +2280,19 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>It’s an incredible undertaking and they will have to continue to do that.</t>
+          <t>But the department of health is leading that effort.</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -2181,23 +2317,26 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Effective contact tracing plans and resources, that’s going to be measured also by the department of health and they have a very specific division population, health experts, doctors and scientists, that’s the epidemiology division.</t>
+          <t>It’s an incredible undertaking and they will have to continue to do that.</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -2209,7 +2348,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2221,20 +2360,23 @@
         <v>0</v>
       </c>
       <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>That division has to have, They will tell us that they believe that we can do sufficient contact tracing and I know that that sounds easy.</t>
+          <t>Effective contact tracing plans and resources, that’s going to be measured also by the department of health and they have a very specific division population, health experts, doctors and scientists, that’s the epidemiology division.</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -2249,7 +2391,7 @@
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -2258,16 +2400,19 @@
         <v>0</v>
       </c>
       <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>“I have COVID-19, I was identified as positive.</t>
+          <t>That division has to have, They will tell us that they believe that we can do sufficient contact tracing and I know that that sounds easy.</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -2277,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
@@ -2295,16 +2440,19 @@
         <v>0</v>
       </c>
       <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Here’s the family members I was around, I’m not working, and I went to this grocery store, I didn’t touch anyone.</t>
+          <t>“I have COVID-19, I was identified as positive.</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -2320,7 +2468,7 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2332,20 +2480,23 @@
         <v>0</v>
       </c>
       <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>We’re done.</t>
+          <t>Here’s the family members I was around, I’m not working, and I went to this grocery store, I didn’t touch anyone.</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
@@ -2354,13 +2505,13 @@
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -2369,16 +2520,19 @@
         <v>0</v>
       </c>
       <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>No, you have to really think about if anybody else in the household, if you went for a walk, if you were in a car with someone else, what grocery store, where in that area, how close did you get to, we have to do all of that work and while we’re moving to that digitizing phase of this work, it is still a lot of personal contact.</t>
+          <t>We’re done.</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -2394,7 +2548,7 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2406,20 +2560,23 @@
         <v>0</v>
       </c>
       <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>So it’s incredibly time intensive, and for places in New Mexico without broadband and telephones, it is even more challenging for a rural, vulnerable minority population.</t>
+          <t>No, you have to really think about if anybody else in the household, if you went for a walk, if you were in a car with someone else, what grocery store, where in that area, how close did you get to, we have to do all of that work and while we’re moving to that digitizing phase of this work, it is still a lot of personal contact.</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54" t="n">
         <v>0</v>
@@ -2431,10 +2588,10 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -2443,20 +2600,23 @@
         <v>0</v>
       </c>
       <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>So it’s a huge undertaking, but we are well on our way.</t>
+          <t>So it’s incredibly time intensive, and for places in New Mexico without broadband and telephones, it is even more challenging for a rural, vulnerable minority population.</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -2465,13 +2625,13 @@
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -2480,20 +2640,23 @@
         <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>And the healthcare system capacity and personal protection equipment levels, that’s also measured by the department of health and by the medical advisory team.</t>
+          <t>So it’s a huge undertaking, but we are well on our way.</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -2517,16 +2680,19 @@
         <v>0</v>
       </c>
       <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>I keep pointing to my two experts and leads that will be analyzed all of the time, if that doesn’t stay stable.</t>
+          <t>And the healthcare system capacity and personal protection equipment levels, that’s also measured by the department of health and by the medical advisory team.</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -2554,23 +2720,26 @@
         <v>0</v>
       </c>
       <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>What does that mean.</t>
+          <t>I keep pointing to my two experts and leads that will be analyzed all of the time, if that doesn’t stay stable.</t>
         </is>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
@@ -2591,32 +2760,35 @@
         <v>0</v>
       </c>
       <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>That the healthcare system can take it that we have enough equipment and support.</t>
+          <t>What does that mean.</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2628,16 +2800,19 @@
         <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Then we can’t go to the next phase.</t>
+          <t>That the healthcare system can take it that we have enough equipment and support.</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -2665,20 +2840,23 @@
         <v>0</v>
       </c>
       <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>So we’ll have the phase one, more relaxing, phase two, more businesses, more economic recovery.</t>
+          <t>Then we can’t go to the next phase.</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
@@ -2702,20 +2880,23 @@
         <v>0</v>
       </c>
       <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Phase three means we’re closing in on a vaccine and we feel like it’s completely back to normal with this.</t>
+          <t>So we’ll have the phase one, more relaxing, phase two, more businesses, more economic recovery.</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
@@ -2730,7 +2911,7 @@
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -2739,16 +2920,19 @@
         <v>0</v>
       </c>
       <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Everyone on the globe has learned the lesson about a pandemic.</t>
+          <t>Phase three means we’re closing in on a vaccine and we feel like it’s completely back to normal with this.</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -2776,16 +2960,19 @@
         <v>0</v>
       </c>
       <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>They can strike again, likely will and we just have to start thinking about our own behaviors that will allow us to be as prepared as possible and to have our behaviors dictate the kind of responses that save as many lives as possible.</t>
+          <t>Everyone on the globe has learned the lesson about a pandemic.</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -2804,29 +2991,32 @@
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>I’m really proud of this work.</t>
+          <t>They can strike again, likely will and we just have to start thinking about our own behaviors that will allow us to be as prepared as possible and to have our behaviors dictate the kind of responses that save as many lives as possible.</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
@@ -2841,29 +3031,32 @@
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
       </c>
       <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>I believe that based on the evidence it’s a safe relaxation, begins to ease those pressures.</t>
+          <t>I’m really proud of this work.</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
@@ -2881,22 +3074,25 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="n">
         <v>0</v>
       </c>
       <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>The Northwest region of the state is going to require a lot more of our attention.</t>
+          <t>I believe that based on the evidence it’s a safe relaxation, begins to ease those pressures.</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -2924,16 +3120,19 @@
         <v>0</v>
       </c>
       <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>They both deserve that attention and will get it, including bearing all of the resources we can muster to do everything we can to adequately reduce the rate of transmission, save more lives, and get through both the surge and the peak in that particular part of the state.</t>
+          <t>The Northwest region of the state is going to require a lot more of our attention.</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -2952,7 +3151,7 @@
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -2961,20 +3160,23 @@
         <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Okay.</t>
+          <t>They both deserve that attention and will get it, including bearing all of the resources we can muster to do everything we can to adequately reduce the rate of transmission, save more lives, and get through both the surge and the peak in that particular part of the state.</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
@@ -2989,32 +3191,35 @@
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
         <v>0</v>
       </c>
       <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>I think I’ve run through all of my slides about the new order effective tomorrow, right.</t>
+          <t>Okay.</t>
         </is>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
@@ -3035,32 +3240,35 @@
         <v>0</v>
       </c>
       <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Current order expires midnight today and you should expect more announcements related to the preparation phase through the economic recovery council, the mayor’s council tied to the chief of staff and business observations and input as we move through this process.</t>
+          <t>I think I’ve run through all of my slides about the new order effective tomorrow, right.</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3072,16 +3280,19 @@
         <v>0</v>
       </c>
       <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>I’m going to go to the secretary of health who’s going to give us an update on testing strategies and information.</t>
+          <t>Current order expires midnight today and you should expect more announcements related to the preparation phase through the economic recovery council, the mayor’s council tied to the chief of staff and business observations and input as we move through this process.</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -3109,16 +3320,19 @@
         <v>0</v>
       </c>
       <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>And then we’re going to move to Dr Scrase who will go through some of the modeling slides, and then we’re going to be right back to answering questions.</t>
+          <t>I’m going to go to the secretary of health who’s going to give us an update on testing strategies and information.</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -3134,7 +3348,7 @@
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3146,16 +3360,19 @@
         <v>0</v>
       </c>
       <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>I want to make sure that KOAT is with us.</t>
+          <t>And then we’re going to move to Dr Scrase who will go through some of the modeling slides, and then we’re going to be right back to answering questions.</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -3183,16 +3400,19 @@
         <v>0</v>
       </c>
       <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>We started about five minutes late.</t>
+          <t>I want to make sure that KOAT is with us.</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -3220,16 +3440,19 @@
         <v>0</v>
       </c>
       <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>They were having some technical difficulties.</t>
+          <t>We started about five minutes late.</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -3257,16 +3480,19 @@
         <v>0</v>
       </c>
       <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>I’m getting a good positive thumbs up, so I think all is well.</t>
+          <t>They were having some technical difficulties.</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -3294,16 +3520,19 @@
         <v>0</v>
       </c>
       <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Let’s go to a secretary Kunkel.</t>
+          <t>I’m getting a good positive thumbs up, so I think all is well.</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -3331,20 +3560,23 @@
         <v>0</v>
       </c>
       <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Thank you, Dr. Scrase.</t>
+          <t>Let’s go to a secretary Kunkel.</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D79" t="n">
         <v>0</v>
@@ -3359,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -3368,16 +3600,19 @@
         <v>0</v>
       </c>
       <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>I want to do a couple more slides before we take questions.</t>
+          <t>Thank you, Dr. Scrase.</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -3405,16 +3640,19 @@
         <v>0</v>
       </c>
       <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>In this effort, I want to talk about some of the phases, and I also want to talk about what the practices of the different businesses, as we’re expanding the retailers that can operate.</t>
+          <t>I want to do a couple more slides before we take questions.</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -3430,7 +3668,7 @@
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3442,16 +3680,19 @@
         <v>0</v>
       </c>
       <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>So phase one, we are hoping to, mid-May, look at all retailers, so not just the ones in the current order which I went over earlier, could operate according to a retail COVID-safe practice, and that looks at a 10% occupancy.</t>
+          <t>In this effort, I want to talk about some of the phases, and I also want to talk about what the practices of the different businesses, as we’re expanding the retailers that can operate.</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -3479,16 +3720,19 @@
         <v>0</v>
       </c>
       <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>We use the fire code to determine how many people that is.</t>
+          <t>So phase one, we are hoping to, mid-May, look at all retailers, so not just the ones in the current order which I went over earlier, could operate according to a retail COVID-safe practice, and that looks at a 10% occupancy.</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -3516,16 +3760,19 @@
         <v>0</v>
       </c>
       <c r="K83" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>The dine-in service at restaurants and bars could be permitted up to 50% occupancy and can’t have bar stool or standing services.</t>
+          <t>We use the fire code to determine how many people that is.</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -3553,23 +3800,26 @@
         <v>0</v>
       </c>
       <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Why is that.</t>
+          <t>The dine-in service at restaurants and bars could be permitted up to 50% occupancy and can’t have bar stool or standing services.</t>
         </is>
       </c>
       <c r="C85" t="n">
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E85" t="n">
         <v>0</v>
@@ -3590,26 +3840,29 @@
         <v>0</v>
       </c>
       <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Well, you talked.</t>
+          <t>Why is that.</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D86" t="n">
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
@@ -3627,16 +3880,19 @@
         <v>0</v>
       </c>
       <c r="K86" t="n">
+        <v>0</v>
+      </c>
+      <c r="L86" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>We heard a little bit about the Johns Hopkins model that I referenced, which is you look at the duration of that contact as well as the number of individuals you contact, and we know that those are high contact, high duration activities.</t>
+          <t>Well, you talked.</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -3664,16 +3920,19 @@
         <v>0</v>
       </c>
       <c r="K87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Gyms and salons and hotels and houses of worship could operate also in a limited fashion according to COVID-safe practices.</t>
+          <t>We heard a little bit about the Johns Hopkins model that I referenced, which is you look at the duration of that contact as well as the number of individuals you contact, and we know that those are high contact, high duration activities.</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -3689,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3701,20 +3960,23 @@
         <v>0</v>
       </c>
       <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>The reason I want people to see this is effort we’re making to provide information about how we’re preparing, how we’re looking at some of these phases, and an opportunity, again, to reiterate, it really depends on New Mexico.</t>
+          <t>Gyms and salons and hotels and houses of worship could operate also in a limited fashion according to COVID-safe practices.</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D89" t="n">
         <v>0</v>
@@ -3726,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -3738,20 +4000,23 @@
         <v>0</v>
       </c>
       <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>How well we do this means how safely we can introduce this, and we do want access to these services, and as importantly, if we do this productively, it means that we can save more of these businesses.</t>
+          <t>The reason I want people to see this is effort we’re making to provide information about how we’re preparing, how we’re looking at some of these phases, and an opportunity, again, to reiterate, it really depends on New Mexico.</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D90" t="n">
         <v>0</v>
@@ -3775,20 +4040,23 @@
         <v>0</v>
       </c>
       <c r="K90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>I’d love to say in this press conference that if we do this, we can save all of them.</t>
+          <t>How well we do this means how safely we can introduce this, and we do want access to these services, and as importantly, if we do this productively, it means that we can save more of these businesses.</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D91" t="n">
         <v>0</v>
@@ -3797,7 +4065,7 @@
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G91" t="n">
         <v>0</v>
@@ -3806,26 +4074,29 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="n">
         <v>0</v>
       </c>
       <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>The reality is we’ve lost some of our incredible New Mexico small business partners because of this public health global pandemic emergency, so we really have to be cautious about how we do that, and you see that we wrote it right on the slide.</t>
+          <t>I’d love to say in this press conference that if we do this, we can save all of them.</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D92" t="n">
         <v>0</v>
@@ -3837,10 +4108,10 @@
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -3849,20 +4120,23 @@
         <v>0</v>
       </c>
       <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Your personal decisions will make or break the ability for New Mexico to both parallel our efforts for economic recovery and to support our local business partners in the state.</t>
+          <t>The reality is we’ve lost some of our incredible New Mexico small business partners because of this public health global pandemic emergency, so we really have to be cautious about how we do that, and you see that we wrote it right on the slide.</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D93" t="n">
         <v>0</v>
@@ -3880,26 +4154,29 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>I know that I’m going to do my part and absolutely all of us are expecting you to do yours.</t>
+          <t>Your personal decisions will make or break the ability for New Mexico to both parallel our efforts for economic recovery and to support our local business partners in the state.</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D94" t="n">
         <v>0</v>
@@ -3920,23 +4197,26 @@
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K94" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Next slide.</t>
+          <t>I know that I’m going to do my part and absolutely all of us are expecting you to do yours.</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D95" t="n">
         <v>0</v>
@@ -3960,16 +4240,19 @@
         <v>0</v>
       </c>
       <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>All right, so here are the COVID-safe practices for every New Mexican.</t>
+          <t>Next slide.</t>
         </is>
       </c>
       <c r="C96" t="n">
@@ -3997,20 +4280,23 @@
         <v>0</v>
       </c>
       <c r="K96" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>I’m going to keep hitting this hard, because we can do better.</t>
+          <t>All right, so here are the COVID-safe practices for every New Mexican.</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D97" t="n">
         <v>0</v>
@@ -4031,23 +4317,26 @@
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K97" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>We do well.</t>
+          <t>I’m going to keep hitting this hard, because we can do better.</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D98" t="n">
         <v>0</v>
@@ -4056,7 +4345,7 @@
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G98" t="n">
         <v>0</v>
@@ -4071,20 +4360,23 @@
         <v>0</v>
       </c>
       <c r="K98" t="n">
+        <v>0</v>
+      </c>
+      <c r="L98" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>If we weren’t doing well, we wouldn’t be having a preparation phase.</t>
+          <t>We do well.</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D99" t="n">
         <v>0</v>
@@ -4096,32 +4388,35 @@
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="n">
         <v>0</v>
       </c>
       <c r="K99" t="n">
+        <v>0</v>
+      </c>
+      <c r="L99" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>We wouldn’t have an economic recovery council, we wouldn’t be protecting our healthcare providers, but it’s not perfect, and we can always do better.</t>
+          <t>If we weren’t doing well, we wouldn’t be having a preparation phase.</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D100" t="n">
         <v>0</v>
@@ -4130,13 +4425,13 @@
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G100" t="n">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -4145,20 +4440,23 @@
         <v>0</v>
       </c>
       <c r="K100" t="n">
+        <v>0</v>
+      </c>
+      <c r="L100" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>So let’s talk about that one more time.</t>
+          <t>We wouldn’t have an economic recovery council, we wouldn’t be protecting our healthcare providers, but it’s not perfect, and we can always do better.</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D101" t="n">
         <v>0</v>
@@ -4176,22 +4474,25 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="n">
         <v>0</v>
       </c>
       <c r="K101" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Avoid unnecessary travel just because new businesses are open.</t>
+          <t>So let’s talk about that one more time.</t>
         </is>
       </c>
       <c r="C102" t="n">
@@ -4219,16 +4520,19 @@
         <v>0</v>
       </c>
       <c r="K102" t="n">
+        <v>0</v>
+      </c>
+      <c r="L102" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>It seems like it’s a bit contradictory.</t>
+          <t>Avoid unnecessary travel just because new businesses are open.</t>
         </is>
       </c>
       <c r="C103" t="n">
@@ -4256,20 +4560,23 @@
         <v>0</v>
       </c>
       <c r="K103" t="n">
+        <v>0</v>
+      </c>
+      <c r="L103" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Don’t go gratuitously, but yes, as we’re opening up, go to that curbside delivery.</t>
+          <t>It seems like it’s a bit contradictory.</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D104" t="n">
         <v>0</v>
@@ -4278,31 +4585,34 @@
         <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="n">
         <v>0</v>
       </c>
       <c r="K104" t="n">
+        <v>0</v>
+      </c>
+      <c r="L104" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Support a local retailer.</t>
+          <t>Don’t go gratuitously, but yes, as we’re opening up, go to that curbside delivery.</t>
         </is>
       </c>
       <c r="C105" t="n">
@@ -4318,10 +4628,10 @@
         <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -4330,16 +4640,19 @@
         <v>0</v>
       </c>
       <c r="K105" t="n">
+        <v>0</v>
+      </c>
+      <c r="L105" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Support another local business, all right.</t>
+          <t>Support a local retailer.</t>
         </is>
       </c>
       <c r="C106" t="n">
@@ -4358,7 +4671,7 @@
         <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -4367,16 +4680,19 @@
         <v>0</v>
       </c>
       <c r="K106" t="n">
+        <v>0</v>
+      </c>
+      <c r="L106" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Always unequivocally do not go anywhere when you are sick, except for medical emergencies.</t>
+          <t>Support another local business, all right.</t>
         </is>
       </c>
       <c r="C107" t="n">
@@ -4401,19 +4717,22 @@
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K107" t="n">
+        <v>0</v>
+      </c>
+      <c r="L107" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>I want to do everything we can to stop that confusion where people aren’t getting, seeking medical attention.</t>
+          <t>Always unequivocally do not go anywhere when you are sick, except for medical emergencies.</t>
         </is>
       </c>
       <c r="C108" t="n">
@@ -4432,7 +4751,7 @@
         <v>0</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -4441,20 +4760,23 @@
         <v>0</v>
       </c>
       <c r="K108" t="n">
+        <v>0</v>
+      </c>
+      <c r="L108" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Two things are happening.</t>
+          <t>I want to do everything we can to stop that confusion where people aren’t getting, seeking medical attention.</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D109" t="n">
         <v>0</v>
@@ -4472,22 +4794,25 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="n">
         <v>0</v>
       </c>
       <c r="K109" t="n">
+        <v>0</v>
+      </c>
+      <c r="L109" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>People who know they need it or afraid to go to a hospital because of COVID-19.</t>
+          <t>Two things are happening.</t>
         </is>
       </c>
       <c r="C110" t="n">
@@ -4515,20 +4840,23 @@
         <v>0</v>
       </c>
       <c r="K110" t="n">
+        <v>0</v>
+      </c>
+      <c r="L110" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>That’s a productive aspect about, “I’ve got to be really careful.</t>
+          <t>People who know they need it or afraid to go to a hospital because of COVID-19.</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D111" t="n">
         <v>0</v>
@@ -4543,29 +4871,32 @@
         <v>0</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="n">
         <v>0</v>
       </c>
       <c r="K111" t="n">
+        <v>0</v>
+      </c>
+      <c r="L111" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>I don’t want to introduce it to myself, but you cannot limit yourself to necessary medical services and emergencies, and the hospitals are prepared.</t>
+          <t>That’s a productive aspect about, “I’ve got to be really careful.</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D112" t="n">
         <v>0</v>
@@ -4580,29 +4911,32 @@
         <v>0</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="n">
         <v>0</v>
       </c>
       <c r="K112" t="n">
+        <v>0</v>
+      </c>
+      <c r="L112" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>This is not their first effort at dealing with infections.</t>
+          <t>I don’t want to introduce it to myself, but you cannot limit yourself to necessary medical services and emergencies, and the hospitals are prepared.</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D113" t="n">
         <v>0</v>
@@ -4620,22 +4954,25 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="n">
         <v>0</v>
       </c>
       <c r="K113" t="n">
+        <v>0</v>
+      </c>
+      <c r="L113" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>They know how to do this.</t>
+          <t>This is not their first effort at dealing with infections.</t>
         </is>
       </c>
       <c r="C114" t="n">
@@ -4651,7 +4988,7 @@
         <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4663,16 +5000,19 @@
         <v>0</v>
       </c>
       <c r="K114" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>They will keep you safe.</t>
+          <t>They know how to do this.</t>
         </is>
       </c>
       <c r="C115" t="n">
@@ -4700,20 +5040,23 @@
         <v>0</v>
       </c>
       <c r="K115" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>We cannot have you not garnering and providing access to important medical emergency, so don’t feel like you can’t do that.</t>
+          <t>They will keep you safe.</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D116" t="n">
         <v>0</v>
@@ -4722,31 +5065,34 @@
         <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G116" t="n">
         <v>0</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K116" t="n">
+        <v>0</v>
+      </c>
+      <c r="L116" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Of course you can, and you should.</t>
+          <t>We cannot have you not garnering and providing access to important medical emergency, so don’t feel like you can’t do that.</t>
         </is>
       </c>
       <c r="C117" t="n">
@@ -4765,7 +5111,7 @@
         <v>0</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -4774,20 +5120,23 @@
         <v>0</v>
       </c>
       <c r="K117" t="n">
+        <v>0</v>
+      </c>
+      <c r="L117" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>We’re there for you.</t>
+          <t>Of course you can, and you should.</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D118" t="n">
         <v>0</v>
@@ -4802,29 +5151,32 @@
         <v>0</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="n">
         <v>0</v>
       </c>
       <c r="K118" t="n">
+        <v>0</v>
+      </c>
+      <c r="L118" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Wash your hands frequently.</t>
+          <t>We’re there for you.</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D119" t="n">
         <v>0</v>
@@ -4842,26 +5194,29 @@
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="n">
         <v>0</v>
       </c>
       <c r="K119" t="n">
+        <v>0</v>
+      </c>
+      <c r="L119" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Everyone needs to keep doing that.</t>
+          <t>Wash your hands frequently.</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D120" t="n">
         <v>0</v>
@@ -4876,29 +5231,32 @@
         <v>0</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K120" t="n">
+        <v>0</v>
+      </c>
+      <c r="L120" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>We said it at every press conference.</t>
+          <t>Everyone needs to keep doing that.</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D121" t="n">
         <v>0</v>
@@ -4907,7 +5265,7 @@
         <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G121" t="n">
         <v>0</v>
@@ -4922,20 +5280,23 @@
         <v>0</v>
       </c>
       <c r="K121" t="n">
+        <v>0</v>
+      </c>
+      <c r="L121" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>We haven’t been saying it.</t>
+          <t>We said it at every press conference.</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D122" t="n">
         <v>0</v>
@@ -4947,10 +5308,10 @@
         <v>0</v>
       </c>
       <c r="G122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -4959,16 +5320,19 @@
         <v>0</v>
       </c>
       <c r="K122" t="n">
+        <v>0</v>
+      </c>
+      <c r="L122" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>I’m saying it again.</t>
+          <t>We haven’t been saying it.</t>
         </is>
       </c>
       <c r="C123" t="n">
@@ -4996,16 +5360,19 @@
         <v>0</v>
       </c>
       <c r="K123" t="n">
+        <v>0</v>
+      </c>
+      <c r="L123" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>This is incredibly powerful for limiting infection spread.</t>
+          <t>I’m saying it again.</t>
         </is>
       </c>
       <c r="C124" t="n">
@@ -5021,10 +5388,10 @@
         <v>0</v>
       </c>
       <c r="G124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -5033,20 +5400,23 @@
         <v>0</v>
       </c>
       <c r="K124" t="n">
+        <v>0</v>
+      </c>
+      <c r="L124" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>This is our best control mechanism.</t>
+          <t>This is incredibly powerful for limiting infection spread.</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D125" t="n">
         <v>0</v>
@@ -5061,29 +5431,32 @@
         <v>0</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="n">
         <v>0</v>
       </c>
       <c r="K125" t="n">
+        <v>0</v>
+      </c>
+      <c r="L125" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Let’s use it.</t>
+          <t>This is our best control mechanism.</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D126" t="n">
         <v>0</v>
@@ -5101,26 +5474,29 @@
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K126" t="n">
+        <v>0</v>
+      </c>
+      <c r="L126" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Avoid touching your eyes, your nose, your mouth with unwashed hands.</t>
+          <t>Let’s use it.</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D127" t="n">
         <v>0</v>
@@ -5132,7 +5508,7 @@
         <v>0</v>
       </c>
       <c r="G127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5141,23 +5517,26 @@
         <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K127" t="n">
+        <v>0</v>
+      </c>
+      <c r="L127" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Frankly, if you can learn not to touch your face.</t>
+          <t>Avoid touching your eyes, your nose, your mouth with unwashed hands.</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D128" t="n">
         <v>0</v>
@@ -5172,25 +5551,28 @@
         <v>0</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K128" t="n">
+        <v>0</v>
+      </c>
+      <c r="L128" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>I will say this is the biggest challenge for me is not touching my face.</t>
+          <t>Frankly, if you can learn not to touch your face.</t>
         </is>
       </c>
       <c r="C129" t="n">
@@ -5218,20 +5600,23 @@
         <v>0</v>
       </c>
       <c r="K129" t="n">
+        <v>0</v>
+      </c>
+      <c r="L129" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>It’s allergy season.</t>
+          <t>I will say this is the biggest challenge for me is not touching my face.</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D130" t="n">
         <v>0</v>
@@ -5255,16 +5640,19 @@
         <v>0</v>
       </c>
       <c r="K130" t="n">
+        <v>0</v>
+      </c>
+      <c r="L130" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>I’m compelled to do it, and I’ve really had to think about it.</t>
+          <t>It’s allergy season.</t>
         </is>
       </c>
       <c r="C131" t="n">
@@ -5292,16 +5680,19 @@
         <v>0</v>
       </c>
       <c r="K131" t="n">
+        <v>0</v>
+      </c>
+      <c r="L131" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>We can all do better.</t>
+          <t>I’m compelled to do it, and I’ve really had to think about it.</t>
         </is>
       </c>
       <c r="C132" t="n">
@@ -5317,32 +5708,35 @@
         <v>0</v>
       </c>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K132" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>I can do better, all right.</t>
+          <t>We can all do better.</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D133" t="n">
         <v>0</v>
@@ -5357,29 +5751,32 @@
         <v>0</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" t="n">
         <v>0</v>
       </c>
       <c r="K133" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>You need to clean and disinfect frequently touched objects, phones, surfaces.</t>
+          <t>I can do better, all right.</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D134" t="n">
         <v>0</v>
@@ -5391,32 +5788,35 @@
         <v>0</v>
       </c>
       <c r="G134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K134" t="n">
+        <v>0</v>
+      </c>
+      <c r="L134" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>We do that every day.</t>
+          <t>You need to clean and disinfect frequently touched objects, phones, surfaces.</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D135" t="n">
         <v>0</v>
@@ -5431,7 +5831,7 @@
         <v>0</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -5440,16 +5840,19 @@
         <v>0</v>
       </c>
       <c r="K135" t="n">
+        <v>0</v>
+      </c>
+      <c r="L135" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>It’s a practice I require by the staff that I have to come in to some contact with that we can’t do over the telephone.</t>
+          <t>We do that every day.</t>
         </is>
       </c>
       <c r="C136" t="n">
@@ -5462,7 +5865,7 @@
         <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G136" t="n">
         <v>0</v>
@@ -5477,20 +5880,23 @@
         <v>0</v>
       </c>
       <c r="K136" t="n">
+        <v>0</v>
+      </c>
+      <c r="L136" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>They require it of me.</t>
+          <t>It’s a practice I require by the staff that I have to come in to some contact with that we can’t do over the telephone.</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D137" t="n">
         <v>0</v>
@@ -5514,16 +5920,19 @@
         <v>0</v>
       </c>
       <c r="K137" t="n">
+        <v>0</v>
+      </c>
+      <c r="L137" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>You need to require it of your family and your coworkers.</t>
+          <t>They require it of me.</t>
         </is>
       </c>
       <c r="C138" t="n">
@@ -5548,23 +5957,26 @@
         <v>0</v>
       </c>
       <c r="J138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K138" t="n">
+        <v>0</v>
+      </c>
+      <c r="L138" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Only you can help us make sure that we’re doing this effectively.</t>
+          <t>You need to require it of your family and your coworkers.</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D139" t="n">
         <v>0</v>
@@ -5585,23 +5997,26 @@
         <v>0</v>
       </c>
       <c r="J139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K139" t="n">
+        <v>0</v>
+      </c>
+      <c r="L139" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Again, Dr. Scrase, let’s do everything in our power to keep that out of the hands of children.</t>
+          <t>Only you can help us make sure that we’re doing this effectively.</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D140" t="n">
         <v>0</v>
@@ -5616,29 +6031,32 @@
         <v>0</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" t="n">
         <v>0</v>
       </c>
       <c r="K140" t="n">
+        <v>0</v>
+      </c>
+      <c r="L140" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Now watch for the symptoms of COVID-19, because with cold season, with allergy season, people get confused and say, “Well, I have a cough but not a fever.</t>
+          <t>Again, Dr. Scrase, let’s do everything in our power to keep that out of the hands of children.</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D141" t="n">
         <v>0</v>
@@ -5650,28 +6068,31 @@
         <v>0</v>
       </c>
       <c r="G141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K141" t="n">
+        <v>0</v>
+      </c>
+      <c r="L141" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>I have a fever but not a cough.</t>
+          <t>Now watch for the symptoms of COVID-19, because with cold season, with allergy season, people get confused and say, “Well, I have a cough but not a fever.</t>
         </is>
       </c>
       <c r="C142" t="n">
@@ -5699,16 +6120,19 @@
         <v>0</v>
       </c>
       <c r="K142" t="n">
+        <v>0</v>
+      </c>
+      <c r="L142" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>One of these, with the testing capacity that we have, we know that because there was no federal testing strategy.</t>
+          <t>I have a fever but not a cough.</t>
         </is>
       </c>
       <c r="C143" t="n">
@@ -5736,16 +6160,19 @@
         <v>0</v>
       </c>
       <c r="K143" t="n">
+        <v>0</v>
+      </c>
+      <c r="L143" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Today, there are still some States that without a doctor’s referral or without all of these symptoms, you can’t get tested.</t>
+          <t>One of these, with the testing capacity that we have, we know that because there was no federal testing strategy.</t>
         </is>
       </c>
       <c r="C144" t="n">
@@ -5761,7 +6188,7 @@
         <v>0</v>
       </c>
       <c r="G144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5773,16 +6200,19 @@
         <v>0</v>
       </c>
       <c r="K144" t="n">
+        <v>0</v>
+      </c>
+      <c r="L144" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>We have the opportunity to keep expanding our testing.</t>
+          <t>Today, there are still some States that without a doctor’s referral or without all of these symptoms, you can’t get tested.</t>
         </is>
       </c>
       <c r="C145" t="n">
@@ -5810,20 +6240,23 @@
         <v>0</v>
       </c>
       <c r="K145" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L145" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>It’s not universal.</t>
+          <t>We have the opportunity to keep expanding our testing.</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D146" t="n">
         <v>0</v>
@@ -5835,7 +6268,7 @@
         <v>0</v>
       </c>
       <c r="G146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5847,20 +6280,23 @@
         <v>0</v>
       </c>
       <c r="K146" t="n">
+        <v>0</v>
+      </c>
+      <c r="L146" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>It’s not.</t>
+          <t>It’s not universal.</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D147" t="n">
         <v>0</v>
@@ -5884,16 +6320,19 @@
         <v>0</v>
       </c>
       <c r="K147" t="n">
+        <v>0</v>
+      </c>
+      <c r="L147" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>I don’t have two million viral test kits at my disposal in a week, and I don’t have the capacity to even test two million, but we can do an incredible job, and frankly not enough New Mexicans are getting tested, so come get tested.</t>
+          <t>It’s not.</t>
         </is>
       </c>
       <c r="C148" t="n">
@@ -5906,35 +6345,38 @@
         <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
       <c r="J148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K148" t="n">
+        <v>0</v>
+      </c>
+      <c r="L148" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>We’re going to keep expanding out to our high risk areas like grocery store workers, childcare centers, nursing homes, and the like, all the essential workers, first responders, but we want you to also come to us.</t>
+          <t>I don’t have two million viral test kits at my disposal in a week, and I don’t have the capacity to even test two million, but we can do an incredible job, and frankly not enough New Mexicans are getting tested, so come get tested.</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D149" t="n">
         <v>0</v>
@@ -5943,35 +6385,38 @@
         <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H149" t="n">
         <v>1</v>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K149" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L149" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Any of these: fever, cough, shortness of breath, chills, repeated shaking with chills, muscle pain, headache, sore throat, and here’s one that was talked about for a long time nationally, and I haven’t heard about it much anymore.</t>
+          <t>We’re going to keep expanding out to our high risk areas like grocery store workers, childcare centers, nursing homes, and the like, all the essential workers, first responders, but we want you to also come to us.</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D150" t="n">
         <v>0</v>
@@ -5986,29 +6431,32 @@
         <v>1</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J150" t="n">
         <v>0</v>
       </c>
       <c r="K150" t="n">
+        <v>0</v>
+      </c>
+      <c r="L150" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>It’s still a valid review.</t>
+          <t>Any of these: fever, cough, shortness of breath, chills, repeated shaking with chills, muscle pain, headache, sore throat, and here’s one that was talked about for a long time nationally, and I haven’t heard about it much anymore.</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D151" t="n">
         <v>0</v>
@@ -6023,7 +6471,7 @@
         <v>0</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -6032,23 +6480,26 @@
         <v>0</v>
       </c>
       <c r="K151" t="n">
+        <v>0</v>
+      </c>
+      <c r="L151" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Have you lost your taste or smell.</t>
+          <t>It’s still a valid review.</t>
         </is>
       </c>
       <c r="C152" t="n">
         <v>0</v>
       </c>
       <c r="D152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E152" t="n">
         <v>0</v>
@@ -6069,32 +6520,35 @@
         <v>0</v>
       </c>
       <c r="K152" t="n">
+        <v>0</v>
+      </c>
+      <c r="L152" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Do not go out if you have any of those things, all of those things, and let us test you.</t>
+          <t>Have you lost your taste or smell.</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D153" t="n">
         <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F153" t="n">
         <v>0</v>
       </c>
       <c r="G153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6103,23 +6557,26 @@
         <v>0</v>
       </c>
       <c r="J153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K153" t="n">
+        <v>0</v>
+      </c>
+      <c r="L153" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Do not under any circumstances go to work.</t>
+          <t>Do not go out if you have any of those things, all of those things, and let us test you.</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D154" t="n">
         <v>0</v>
@@ -6140,23 +6597,26 @@
         <v>0</v>
       </c>
       <c r="J154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K154" t="n">
+        <v>0</v>
+      </c>
+      <c r="L154" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>If you must go out these can mitigate, all right.</t>
+          <t>Do not under any circumstances go to work.</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D155" t="n">
         <v>0</v>
@@ -6180,16 +6640,19 @@
         <v>0</v>
       </c>
       <c r="K155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L155" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>We’ve talked about the difference between a respirator and the healthcare workers making sure that they cannot pass that virus on to a patient, but this mitigates spread.</t>
+          <t>If you must go out these can mitigate, all right.</t>
         </is>
       </c>
       <c r="C156" t="n">
@@ -6217,16 +6680,19 @@
         <v>0</v>
       </c>
       <c r="K156" t="n">
+        <v>0</v>
+      </c>
+      <c r="L156" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Wear these.</t>
+          <t>We’ve talked about the difference between a respirator and the healthcare workers making sure that they cannot pass that virus on to a patient, but this mitigates spread.</t>
         </is>
       </c>
       <c r="C157" t="n">
@@ -6251,19 +6717,22 @@
         <v>0</v>
       </c>
       <c r="J157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L157" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>If you don’t have access to a face covering, you make sure you call our non-health line.</t>
+          <t>Wear these.</t>
         </is>
       </c>
       <c r="C158" t="n">
@@ -6288,19 +6757,22 @@
         <v>0</v>
       </c>
       <c r="J158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K158" t="n">
+        <v>0</v>
+      </c>
+      <c r="L158" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>We’ll help you get access.</t>
+          <t>If you don’t have access to a face covering, you make sure you call our non-health line.</t>
         </is>
       </c>
       <c r="C159" t="n">
@@ -6328,20 +6800,23 @@
         <v>0</v>
       </c>
       <c r="K159" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L159" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>So many businesses are working and so many individuals across the state, just like my mask was made for me, and thank you Santa Fe Opera.</t>
+          <t>We’ll help you get access.</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D160" t="n">
         <v>0</v>
@@ -6353,35 +6828,38 @@
         <v>0</v>
       </c>
       <c r="G160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J160" t="n">
         <v>0</v>
       </c>
       <c r="K160" t="n">
+        <v>0</v>
+      </c>
+      <c r="L160" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>We think we can get you incredible access, and we’ve got inmates in corrections who are making masks.</t>
+          <t>So many businesses are working and so many individuals across the state, just like my mask was made for me, and thank you Santa Fe Opera.</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E161" t="n">
         <v>0</v>
@@ -6396,26 +6874,29 @@
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J161" t="n">
         <v>0</v>
       </c>
       <c r="K161" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L161" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>They made them for themselves.</t>
+          <t>We think we can get you incredible access, and we’ve got inmates in corrections who are making masks.</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D162" t="n">
         <v>0</v>
@@ -6427,32 +6908,35 @@
         <v>0</v>
       </c>
       <c r="G162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J162" t="n">
         <v>0</v>
       </c>
       <c r="K162" t="n">
+        <v>0</v>
+      </c>
+      <c r="L162" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>They’re making them for as many people as we can.</t>
+          <t>They made them for themselves.</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D163" t="n">
         <v>0</v>
@@ -6470,26 +6954,29 @@
         <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K163" t="n">
+        <v>0</v>
+      </c>
+      <c r="L163" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>We will get you one, and it doesn’t have to be this.</t>
+          <t>They’re making them for as many people as we can.</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D164" t="n">
         <v>0</v>
@@ -6513,20 +7000,23 @@
         <v>0</v>
       </c>
       <c r="K164" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L164" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Just a multilayered face covering in public makes a huge difference.</t>
+          <t>We will get you one, and it doesn’t have to be this.</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D165" t="n">
         <v>0</v>
@@ -6538,10 +7028,10 @@
         <v>0</v>
       </c>
       <c r="G165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -6550,20 +7040,23 @@
         <v>0</v>
       </c>
       <c r="K165" t="n">
+        <v>0</v>
+      </c>
+      <c r="L165" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Six foot distancing.</t>
+          <t>Just a multilayered face covering in public makes a huge difference.</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D166" t="n">
         <v>0</v>
@@ -6581,22 +7074,25 @@
         <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J166" t="n">
         <v>0</v>
       </c>
       <c r="K166" t="n">
+        <v>0</v>
+      </c>
+      <c r="L166" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Do not be near anybody else.</t>
+          <t>Six foot distancing.</t>
         </is>
       </c>
       <c r="C167" t="n">
@@ -6621,19 +7117,22 @@
         <v>0</v>
       </c>
       <c r="J167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K167" t="n">
+        <v>0</v>
+      </c>
+      <c r="L167" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>We can do that.</t>
+          <t>Do not be near anybody else.</t>
         </is>
       </c>
       <c r="C168" t="n">
@@ -6652,7 +7151,7 @@
         <v>0</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -6661,20 +7160,23 @@
         <v>0</v>
       </c>
       <c r="K168" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L168" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Avoid gatherings.</t>
+          <t>We can do that.</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D169" t="n">
         <v>0</v>
@@ -6695,19 +7197,22 @@
         <v>0</v>
       </c>
       <c r="J169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K169" t="n">
+        <v>0</v>
+      </c>
+      <c r="L169" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>That means if you go to one of our state parks that we’re opening and there are 50 people there, turn around.</t>
+          <t>Avoid gatherings.</t>
         </is>
       </c>
       <c r="C170" t="n">
@@ -6732,19 +7237,22 @@
         <v>0</v>
       </c>
       <c r="J170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K170" t="n">
+        <v>0</v>
+      </c>
+      <c r="L170" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>We’ll find a way to make sure that you get access to a really great outdoor activity, but it gets too hard to do that six months this distancing.</t>
+          <t>That means if you go to one of our state parks that we’re opening and there are 50 people there, turn around.</t>
         </is>
       </c>
       <c r="C171" t="n">
@@ -6757,13 +7265,13 @@
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G171" t="n">
         <v>0</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -6772,20 +7280,23 @@
         <v>0</v>
       </c>
       <c r="K171" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L171" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Do whatever you can to keep protecting vulnerable populations.</t>
+          <t>We’ll find a way to make sure that you get access to a really great outdoor activity, but it gets too hard to do that six months this distancing.</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D172" t="n">
         <v>0</v>
@@ -6797,32 +7308,35 @@
         <v>0</v>
       </c>
       <c r="G172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K172" t="n">
+        <v>0</v>
+      </c>
+      <c r="L172" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Do everything you can.</t>
+          <t>Do whatever you can to keep protecting vulnerable populations.</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D173" t="n">
         <v>0</v>
@@ -6843,23 +7357,26 @@
         <v>0</v>
       </c>
       <c r="J173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K173" t="n">
+        <v>0</v>
+      </c>
+      <c r="L173" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Do not connect with them.</t>
+          <t>Do everything you can.</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D174" t="n">
         <v>0</v>
@@ -6874,25 +7391,28 @@
         <v>0</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
       <c r="J174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K174" t="n">
+        <v>0</v>
+      </c>
+      <c r="L174" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>In fact, if you’re a caregiver in your home, you have to do everything you can to limit where you’re going, and if you need our help to support you with meals or any other essential services, please reach out and we will deliver food and services to you.</t>
+          <t>Do not connect with them.</t>
         </is>
       </c>
       <c r="C175" t="n">
@@ -6920,16 +7440,19 @@
         <v>0</v>
       </c>
       <c r="K175" t="n">
+        <v>0</v>
+      </c>
+      <c r="L175" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>That’s the best way to safeguard the person you’re caring for.</t>
+          <t>In fact, if you’re a caregiver in your home, you have to do everything you can to limit where you’re going, and if you need our help to support you with meals or any other essential services, please reach out and we will deliver food and services to you.</t>
         </is>
       </c>
       <c r="C176" t="n">
@@ -6948,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -6957,20 +7480,23 @@
         <v>0</v>
       </c>
       <c r="K176" t="n">
+        <v>0</v>
+      </c>
+      <c r="L176" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Next slide.</t>
+          <t>That’s the best way to safeguard the person you’re caring for.</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D177" t="n">
         <v>0</v>
@@ -6988,22 +7514,25 @@
         <v>0</v>
       </c>
       <c r="I177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J177" t="n">
         <v>0</v>
       </c>
       <c r="K177" t="n">
+        <v>0</v>
+      </c>
+      <c r="L177" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>All right, here’s what employers can do to help us.</t>
+          <t>Next slide.</t>
         </is>
       </c>
       <c r="C178" t="n">
@@ -7031,20 +7560,23 @@
         <v>0</v>
       </c>
       <c r="K178" t="n">
+        <v>0</v>
+      </c>
+      <c r="L178" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>The more employers that can do this, the easier it is to go from that preparation phase into these next phases that we identified earlier in the slides and presentation.</t>
+          <t>All right, here’s what employers can do to help us.</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D179" t="n">
         <v>0</v>
@@ -7062,26 +7594,29 @@
         <v>0</v>
       </c>
       <c r="I179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J179" t="n">
         <v>0</v>
       </c>
       <c r="K179" t="n">
+        <v>0</v>
+      </c>
+      <c r="L179" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>So for workers, limit your operations to remote work to the greatest extent possible, and we’re going to keep doing that in government.</t>
+          <t>The more employers that can do this, the easier it is to go from that preparation phase into these next phases that we identified earlier in the slides and presentation.</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D180" t="n">
         <v>0</v>
@@ -7102,23 +7637,26 @@
         <v>0</v>
       </c>
       <c r="J180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K180" t="n">
+        <v>0</v>
+      </c>
+      <c r="L180" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>We’re hoping our local government partners will continue to follow suit.</t>
+          <t>So for workers, limit your operations to remote work to the greatest extent possible, and we’re going to keep doing that in government.</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D181" t="n">
         <v>0</v>
@@ -7142,16 +7680,19 @@
         <v>0</v>
       </c>
       <c r="K181" t="n">
+        <v>0</v>
+      </c>
+      <c r="L181" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>To the degree that private business can do this, I need you to keep doing it.</t>
+          <t>We’re hoping our local government partners will continue to follow suit.</t>
         </is>
       </c>
       <c r="C182" t="n">
@@ -7164,7 +7705,7 @@
         <v>0</v>
       </c>
       <c r="F182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G182" t="n">
         <v>0</v>
@@ -7176,23 +7717,26 @@
         <v>0</v>
       </c>
       <c r="J182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K182" t="n">
+        <v>0</v>
+      </c>
+      <c r="L182" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>If you can’t, you need to arrange your workplace to provide for six feet distancing between the individuals who work there.</t>
+          <t>To the degree that private business can do this, I need you to keep doing it.</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D183" t="n">
         <v>0</v>
@@ -7204,7 +7748,7 @@
         <v>0</v>
       </c>
       <c r="G183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7216,16 +7760,19 @@
         <v>0</v>
       </c>
       <c r="K183" t="n">
+        <v>0</v>
+      </c>
+      <c r="L183" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>You need to close common areas where personnel at the workplace are likely to congregate, break rooms, lunch rooms.</t>
+          <t>If you can’t, you need to arrange your workplace to provide for six feet distancing between the individuals who work there.</t>
         </is>
       </c>
       <c r="C184" t="n">
@@ -7253,16 +7800,19 @@
         <v>0</v>
       </c>
       <c r="K184" t="n">
+        <v>0</v>
+      </c>
+      <c r="L184" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>We need to find a way for folks to get their lunches and their breaks at their desks or an area outside where you can do this distancing, and also remember we don’t want people to be around each other for long periods of time.</t>
+          <t>You need to close common areas where personnel at the workplace are likely to congregate, break rooms, lunch rooms.</t>
         </is>
       </c>
       <c r="C185" t="n">
@@ -7281,7 +7831,7 @@
         <v>0</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -7290,20 +7840,23 @@
         <v>0</v>
       </c>
       <c r="K185" t="n">
+        <v>0</v>
+      </c>
+      <c r="L185" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>That means an hour lunchtime.</t>
+          <t>We need to find a way for folks to get their lunches and their breaks at their desks or an area outside where you can do this distancing, and also remember we don’t want people to be around each other for long periods of time.</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D186" t="n">
         <v>0</v>
@@ -7318,25 +7871,28 @@
         <v>0</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J186" t="n">
         <v>0</v>
       </c>
       <c r="K186" t="n">
+        <v>0</v>
+      </c>
+      <c r="L186" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>We need to figure that out.</t>
+          <t>That means an hour lunchtime.</t>
         </is>
       </c>
       <c r="C187" t="n">
@@ -7352,7 +7908,7 @@
         <v>0</v>
       </c>
       <c r="G187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7361,23 +7917,26 @@
         <v>0</v>
       </c>
       <c r="J187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K187" t="n">
+        <v>0</v>
+      </c>
+      <c r="L187" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>We need to provide for all meetings to take place remotely whenever possible.</t>
+          <t>We need to figure that out.</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D188" t="n">
         <v>0</v>
@@ -7392,29 +7951,32 @@
         <v>0</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
       <c r="J188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K188" t="n">
+        <v>0</v>
+      </c>
+      <c r="L188" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>I see all over social media where people are having meetings.</t>
+          <t>We need to provide for all meetings to take place remotely whenever possible.</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D189" t="n">
         <v>0</v>
@@ -7438,20 +8000,23 @@
         <v>0</v>
       </c>
       <c r="K189" t="n">
+        <v>0</v>
+      </c>
+      <c r="L189" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Even local leaders in our state still, in violation of the public health orders, are coming together in groups of 10 or 10, and we will hold you accountable.</t>
+          <t>I see all over social media where people are having meetings.</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D190" t="n">
         <v>0</v>
@@ -7475,20 +8040,23 @@
         <v>0</v>
       </c>
       <c r="K190" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L190" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>These are not allowable, and if you don’t provide for meetings to take place remotely, you are creating risk and you are transmitting COVID-19.</t>
+          <t>Even local leaders in our state still, in violation of the public health orders, are coming together in groups of 10 or 10, and we will hold you accountable.</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D191" t="n">
         <v>0</v>
@@ -7503,25 +8071,28 @@
         <v>0</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J191" t="n">
         <v>0</v>
       </c>
       <c r="K191" t="n">
+        <v>0</v>
+      </c>
+      <c r="L191" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>All employees should be provided with appropriate face coverings and should wear them in the workplace, and I want to be really cautious about this.</t>
+          <t>These are not allowable, and if you don’t provide for meetings to take place remotely, you are creating risk and you are transmitting COVID-19.</t>
         </is>
       </c>
       <c r="C192" t="n">
@@ -7540,29 +8111,32 @@
         <v>0</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
       <c r="J192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K192" t="n">
+        <v>0</v>
+      </c>
+      <c r="L192" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>While we are seeing some general easing of access to medical PPE supplies, those supplies in large part need to be reserved to medical and first responder personnel and high risk essential businesses like grocery stores, childcare workers.</t>
+          <t>All employees should be provided with appropriate face coverings and should wear them in the workplace, and I want to be really cautious about this.</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D193" t="n">
         <v>0</v>
@@ -7574,32 +8148,35 @@
         <v>0</v>
       </c>
       <c r="G193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
       </c>
       <c r="I193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J193" t="n">
         <v>0</v>
       </c>
       <c r="K193" t="n">
+        <v>0</v>
+      </c>
+      <c r="L193" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>We need to be really careful about this.</t>
+          <t>While we are seeing some general easing of access to medical PPE supplies, those supplies in large part need to be reserved to medical and first responder personnel and high risk essential businesses like grocery stores, childcare workers.</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D194" t="n">
         <v>0</v>
@@ -7617,26 +8194,29 @@
         <v>0</v>
       </c>
       <c r="I194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K194" t="n">
+        <v>0</v>
+      </c>
+      <c r="L194" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>If you’re a business and you’ve got access, many of them are telling me they can, they do to a surgical mask, fine, but do not work to try to interfere in making sure that every state, every healthcare worker, and every first responder gets the first line of PPE that they really need.</t>
+          <t>We need to be really careful about this.</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D195" t="n">
         <v>0</v>
@@ -7648,10 +8228,10 @@
         <v>0</v>
       </c>
       <c r="G195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -7660,20 +8240,23 @@
         <v>0</v>
       </c>
       <c r="K195" t="n">
+        <v>0</v>
+      </c>
+      <c r="L195" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>That’s why largely you see us in these do-it-yourself masks, because we’re not providing direct healthcare or first responding services.</t>
+          <t>If you’re a business and you’ve got access, many of them are telling me they can, they do to a surgical mask, fine, but do not work to try to interfere in making sure that every state, every healthcare worker, and every first responder gets the first line of PPE that they really need.</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D196" t="n">
         <v>0</v>
@@ -7688,25 +8271,28 @@
         <v>0</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J196" t="n">
         <v>0</v>
       </c>
       <c r="K196" t="n">
+        <v>0</v>
+      </c>
+      <c r="L196" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>You’ve got to train all of your employees on daily cleaning and disinfecting protocols, hygiene and respiratory etiquette.</t>
+          <t>That’s why largely you see us in these do-it-yourself masks, because we’re not providing direct healthcare or first responding services.</t>
         </is>
       </c>
       <c r="C197" t="n">
@@ -7722,7 +8308,7 @@
         <v>0</v>
       </c>
       <c r="G197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7731,23 +8317,26 @@
         <v>0</v>
       </c>
       <c r="J197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K197" t="n">
+        <v>0</v>
+      </c>
+      <c r="L197" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>That means coughing in to your arm and, again, trying to have on these face coverings.</t>
+          <t>You’ve got to train all of your employees on daily cleaning and disinfecting protocols, hygiene and respiratory etiquette.</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D198" t="n">
         <v>0</v>
@@ -7762,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -7771,16 +8360,19 @@
         <v>0</v>
       </c>
       <c r="K198" t="n">
+        <v>0</v>
+      </c>
+      <c r="L198" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Okay, next slide.</t>
+          <t>That means coughing in to your arm and, again, trying to have on these face coverings.</t>
         </is>
       </c>
       <c r="C199" t="n">
@@ -7808,16 +8400,19 @@
         <v>0</v>
       </c>
       <c r="K199" t="n">
+        <v>0</v>
+      </c>
+      <c r="L199" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>You need to be prepared if you’re an employer for making sure that hand washing and sanitizer and other hygiene support is readily available to employees.</t>
+          <t>Okay, next slide.</t>
         </is>
       </c>
       <c r="C200" t="n">
@@ -7833,7 +8428,7 @@
         <v>0</v>
       </c>
       <c r="G200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7842,19 +8437,22 @@
         <v>0</v>
       </c>
       <c r="J200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K200" t="n">
+        <v>0</v>
+      </c>
+      <c r="L200" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>We continue to hear even for essential workers.</t>
+          <t>You need to be prepared if you’re an employer for making sure that hand washing and sanitizer and other hygiene support is readily available to employees.</t>
         </is>
       </c>
       <c r="C201" t="n">
@@ -7882,16 +8480,19 @@
         <v>0</v>
       </c>
       <c r="K201" t="n">
+        <v>0</v>
+      </c>
+      <c r="L201" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>That’s becoming stressful.</t>
+          <t>We continue to hear even for essential workers.</t>
         </is>
       </c>
       <c r="C202" t="n">
@@ -7919,20 +8520,23 @@
         <v>0</v>
       </c>
       <c r="K202" t="n">
+        <v>0</v>
+      </c>
+      <c r="L202" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>As we open up, this absolutely has to be one of those required aspects.</t>
+          <t>That’s becoming stressful.</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D203" t="n">
         <v>0</v>
@@ -7947,29 +8551,32 @@
         <v>0</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K203" t="n">
+        <v>0</v>
+      </c>
+      <c r="L203" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>If you can, we are highly encouraging folks to screen employees before they enter the workplace each day verbally or with written forms or apps so that you’re reminding employees to ask themselves, “Before I come to work, do I then have these symptoms.</t>
+          <t>As we open up, this absolutely has to be one of those required aspects.</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D204" t="n">
         <v>0</v>
@@ -7981,32 +8588,35 @@
         <v>0</v>
       </c>
       <c r="G204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
       </c>
       <c r="I204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K204" t="n">
+        <v>0</v>
+      </c>
+      <c r="L204" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Is it loss of smell or taste.</t>
+          <t>If you can, we are highly encouraging folks to screen employees before they enter the workplace each day verbally or with written forms or apps so that you’re reminding employees to ask themselves, “Before I come to work, do I then have these symptoms.</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D205" t="n">
         <v>0</v>
@@ -8018,7 +8628,7 @@
         <v>0</v>
       </c>
       <c r="G205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -8030,26 +8640,29 @@
         <v>0</v>
       </c>
       <c r="K205" t="n">
+        <v>0</v>
+      </c>
+      <c r="L205" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Is it anything else, because we know unequivocally that in some of our high risk areas, some of the COVID-19 issues were brought in both by individuals who were sick and also individuals who might’ve been asymptomatic but maybe knew that they’d been exposed, so we’ve got to do a better job reminding employees that they have a responsibility before they enter the workplace to do everything they can to safeguard everybody else.</t>
+          <t>Is it loss of smell or taste.</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D206" t="n">
         <v>0</v>
       </c>
       <c r="E206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F206" t="n">
         <v>0</v>
@@ -8058,7 +8671,7 @@
         <v>0</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -8067,16 +8680,19 @@
         <v>0</v>
       </c>
       <c r="K206" t="n">
+        <v>0</v>
+      </c>
+      <c r="L206" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Again, most importantly, you must prohibit employees.</t>
+          <t>Is it anything else, because we know unequivocally that in some of our high risk areas, some of the COVID-19 issues were brought in both by individuals who were sick and also individuals who might’ve been asymptomatic but maybe knew that they’d been exposed, so we’ve got to do a better job reminding employees that they have a responsibility before they enter the workplace to do everything they can to safeguard everybody else.</t>
         </is>
       </c>
       <c r="C207" t="n">
@@ -8095,29 +8711,32 @@
         <v>0</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
       <c r="J207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K207" t="n">
+        <v>0</v>
+      </c>
+      <c r="L207" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>I sort of leaned in there, but if they have known close contact, they’re living in a house with someone who’s COVID-19 and they’re still coming to work, this is problematic.</t>
+          <t>Again, most importantly, you must prohibit employees.</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D208" t="n">
         <v>0</v>
@@ -8132,29 +8751,32 @@
         <v>0</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J208" t="n">
         <v>0</v>
       </c>
       <c r="K208" t="n">
+        <v>0</v>
+      </c>
+      <c r="L208" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>The likelihood that they’re shedding the virus is high.</t>
+          <t>I sort of leaned in there, but if they have known close contact, they’re living in a house with someone who’s COVID-19 and they’re still coming to work, this is problematic.</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D209" t="n">
         <v>0</v>
@@ -8172,22 +8794,25 @@
         <v>0</v>
       </c>
       <c r="I209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J209" t="n">
         <v>0</v>
       </c>
       <c r="K209" t="n">
+        <v>0</v>
+      </c>
+      <c r="L209" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Everyone can’t return to work without a 14-day self-isolation period.</t>
+          <t>The likelihood that they’re shedding the virus is high.</t>
         </is>
       </c>
       <c r="C210" t="n">
@@ -8212,23 +8837,26 @@
         <v>0</v>
       </c>
       <c r="J210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K210" t="n">
+        <v>0</v>
+      </c>
+      <c r="L210" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>It’s critical.</t>
+          <t>Everyone can’t return to work without a 14-day self-isolation period.</t>
         </is>
       </c>
       <c r="C211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D211" t="n">
         <v>0</v>
@@ -8243,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -8252,20 +8880,23 @@
         <v>0</v>
       </c>
       <c r="K211" t="n">
+        <v>0</v>
+      </c>
+      <c r="L211" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Workers, employers need to ask these questions.</t>
+          <t>It’s critical.</t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D212" t="n">
         <v>0</v>
@@ -8283,26 +8914,29 @@
         <v>0</v>
       </c>
       <c r="I212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K212" t="n">
+        <v>0</v>
+      </c>
+      <c r="L212" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Minimize non-essential travel by your employees.</t>
+          <t>Workers, employers need to ask these questions.</t>
         </is>
       </c>
       <c r="C213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D213" t="n">
         <v>0</v>
@@ -8326,20 +8960,23 @@
         <v>0</v>
       </c>
       <c r="K213" t="n">
+        <v>0</v>
+      </c>
+      <c r="L213" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Adhere to all CDC guidelines and state orders regarding isolation.</t>
+          <t>Minimize non-essential travel by your employees.</t>
         </is>
       </c>
       <c r="C214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D214" t="n">
         <v>0</v>
@@ -8357,22 +8994,25 @@
         <v>0</v>
       </c>
       <c r="I214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J214" t="n">
         <v>0</v>
       </c>
       <c r="K214" t="n">
+        <v>0</v>
+      </c>
+      <c r="L214" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>If you need to travel for work, you’re 14 days when you come back in before you can return to work.</t>
+          <t>Adhere to all CDC guidelines and state orders regarding isolation.</t>
         </is>
       </c>
       <c r="C215" t="n">
@@ -8400,16 +9040,19 @@
         <v>0</v>
       </c>
       <c r="K215" t="n">
+        <v>0</v>
+      </c>
+      <c r="L215" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>I can tell you our bases are adhering to that, and I need everybody else to adhere to the same CDC guidelines, and again, just generally anything I have talked about, this is the CDC or OSHA guideline.</t>
+          <t>If you need to travel for work, you’re 14 days when you come back in before you can return to work.</t>
         </is>
       </c>
       <c r="C216" t="n">
@@ -8425,7 +9068,7 @@
         <v>0</v>
       </c>
       <c r="G216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8434,23 +9077,26 @@
         <v>0</v>
       </c>
       <c r="J216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K216" t="n">
+        <v>0</v>
+      </c>
+      <c r="L216" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>I need employers to lean in and meet them all.</t>
+          <t>I can tell you our bases are adhering to that, and I need everybody else to adhere to the same CDC guidelines, and again, just generally anything I have talked about, this is the CDC or OSHA guideline.</t>
         </is>
       </c>
       <c r="C217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D217" t="n">
         <v>0</v>
@@ -8471,23 +9117,26 @@
         <v>0</v>
       </c>
       <c r="J217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K217" t="n">
+        <v>0</v>
+      </c>
+      <c r="L217" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>This is how you keep New Mexico safe.</t>
+          <t>I need employers to lean in and meet them all.</t>
         </is>
       </c>
       <c r="C218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D218" t="n">
         <v>0</v>
@@ -8502,29 +9151,32 @@
         <v>0</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K218" t="n">
+        <v>0</v>
+      </c>
+      <c r="L218" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Next slide.</t>
+          <t>This is how you keep New Mexico safe.</t>
         </is>
       </c>
       <c r="C219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D219" t="n">
         <v>0</v>
@@ -8542,22 +9194,25 @@
         <v>0</v>
       </c>
       <c r="I219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J219" t="n">
         <v>0</v>
       </c>
       <c r="K219" t="n">
+        <v>0</v>
+      </c>
+      <c r="L219" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>All right.</t>
+          <t>Next slide.</t>
         </is>
       </c>
       <c r="C220" t="n">
@@ -8573,7 +9228,7 @@
         <v>0</v>
       </c>
       <c r="G220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8585,16 +9240,19 @@
         <v>0</v>
       </c>
       <c r="K220" t="n">
+        <v>0</v>
+      </c>
+      <c r="L220" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>This is the best practice for all employers, all right.</t>
+          <t>All right.</t>
         </is>
       </c>
       <c r="C221" t="n">
@@ -8622,20 +9280,23 @@
         <v>0</v>
       </c>
       <c r="K221" t="n">
+        <v>0</v>
+      </c>
+      <c r="L221" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>And this is harder, all right.</t>
+          <t>This is the best practice for all employers, all right.</t>
         </is>
       </c>
       <c r="C222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D222" t="n">
         <v>0</v>
@@ -8659,16 +9320,19 @@
         <v>0</v>
       </c>
       <c r="K222" t="n">
+        <v>0</v>
+      </c>
+      <c r="L222" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>This is particularly for those employers that might have higher risk environments that we will look at later in our phases.</t>
+          <t>And this is harder, all right.</t>
         </is>
       </c>
       <c r="C223" t="n">
@@ -8696,16 +9360,19 @@
         <v>0</v>
       </c>
       <c r="K223" t="n">
+        <v>0</v>
+      </c>
+      <c r="L223" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>If you can install large Plexiglass sneeze guards at cash registers, this is incredibly meaningful.</t>
+          <t>This is particularly for those employers that might have higher risk environments that we will look at later in our phases.</t>
         </is>
       </c>
       <c r="C224" t="n">
@@ -8724,7 +9391,7 @@
         <v>0</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -8733,20 +9400,23 @@
         <v>0</v>
       </c>
       <c r="K224" t="n">
+        <v>0</v>
+      </c>
+      <c r="L224" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>These are the best practices, and I want employers to see them.</t>
+          <t>If you can install large Plexiglass sneeze guards at cash registers, this is incredibly meaningful.</t>
         </is>
       </c>
       <c r="C225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D225" t="n">
         <v>0</v>
@@ -8761,29 +9431,32 @@
         <v>0</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J225" t="n">
         <v>0</v>
       </c>
       <c r="K225" t="n">
+        <v>0</v>
+      </c>
+      <c r="L225" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Today’s not the day.</t>
+          <t>These are the best practices, and I want employers to see them.</t>
         </is>
       </c>
       <c r="C226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D226" t="n">
         <v>0</v>
@@ -8801,22 +9474,25 @@
         <v>0</v>
       </c>
       <c r="I226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J226" t="n">
         <v>0</v>
       </c>
       <c r="K226" t="n">
+        <v>0</v>
+      </c>
+      <c r="L226" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>We’re not mandating, but I want you to get a sense about what we know makes a difference, okay.</t>
+          <t>Today’s not the day.</t>
         </is>
       </c>
       <c r="C227" t="n">
@@ -8829,35 +9505,38 @@
         <v>0</v>
       </c>
       <c r="F227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G227" t="n">
         <v>0</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
       <c r="J227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K227" t="n">
+        <v>0</v>
+      </c>
+      <c r="L227" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Plexiglass sneeze guards, cash registers in particular.</t>
+          <t>We’re not mandating, but I want you to get a sense about what we know makes a difference, okay.</t>
         </is>
       </c>
       <c r="C228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D228" t="n">
         <v>0</v>
@@ -8875,22 +9554,25 @@
         <v>0</v>
       </c>
       <c r="I228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J228" t="n">
         <v>0</v>
       </c>
       <c r="K228" t="n">
+        <v>0</v>
+      </c>
+      <c r="L228" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Arrange for contactless payment and receipt options to the greatest extent possible.</t>
+          <t>Plexiglass sneeze guards, cash registers in particular.</t>
         </is>
       </c>
       <c r="C229" t="n">
@@ -8915,23 +9597,26 @@
         <v>0</v>
       </c>
       <c r="J229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K229" t="n">
+        <v>0</v>
+      </c>
+      <c r="L229" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>I know some folks aren’t going to use credit cards and use cash for payment.</t>
+          <t>Arrange for contactless payment and receipt options to the greatest extent possible.</t>
         </is>
       </c>
       <c r="C230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D230" t="n">
         <v>0</v>
@@ -8940,7 +9625,7 @@
         <v>0</v>
       </c>
       <c r="F230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G230" t="n">
         <v>0</v>
@@ -8955,16 +9640,19 @@
         <v>0</v>
       </c>
       <c r="K230" t="n">
+        <v>0</v>
+      </c>
+      <c r="L230" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>We can’t do.</t>
+          <t>I know some folks aren’t going to use credit cards and use cash for payment.</t>
         </is>
       </c>
       <c r="C231" t="n">
@@ -8992,16 +9680,19 @@
         <v>0</v>
       </c>
       <c r="K231" t="n">
+        <v>0</v>
+      </c>
+      <c r="L231" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>We want to make sure that our consumers can access this, but if you can do this to a large extent, this will really mitigate transmission.</t>
+          <t>We can’t do.</t>
         </is>
       </c>
       <c r="C232" t="n">
@@ -9020,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -9029,20 +9720,23 @@
         <v>0</v>
       </c>
       <c r="K232" t="n">
+        <v>0</v>
+      </c>
+      <c r="L232" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Again, screen employees and customers with a no contact thermometer, if you can do that.</t>
+          <t>We want to make sure that our consumers can access this, but if you can do this to a large extent, this will really mitigate transmission.</t>
         </is>
       </c>
       <c r="C233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D233" t="n">
         <v>0</v>
@@ -9060,26 +9754,29 @@
         <v>0</v>
       </c>
       <c r="I233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K233" t="n">
+        <v>0</v>
+      </c>
+      <c r="L233" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Individuals with a temperature reading above 99.1, frankly, for all businesses should be denied entry.</t>
+          <t>Again, screen employees and customers with a no contact thermometer, if you can do that.</t>
         </is>
       </c>
       <c r="C234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D234" t="n">
         <v>0</v>
@@ -9094,7 +9791,7 @@
         <v>0</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -9103,16 +9800,19 @@
         <v>0</v>
       </c>
       <c r="K234" t="n">
+        <v>0</v>
+      </c>
+      <c r="L234" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>I don’t know that every business can manage this aspect, but I want you to know what the best practices are.</t>
+          <t>Individuals with a temperature reading above 99.1, frankly, for all businesses should be denied entry.</t>
         </is>
       </c>
       <c r="C235" t="n">
@@ -9125,13 +9825,13 @@
         <v>0</v>
       </c>
       <c r="F235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G235" t="n">
         <v>0</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -9140,20 +9840,23 @@
         <v>0</v>
       </c>
       <c r="K235" t="n">
+        <v>0</v>
+      </c>
+      <c r="L235" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Those of you who could achieve this will be making a difference in New Mexico.</t>
+          <t>I don’t know that every business can manage this aspect, but I want you to know what the best practices are.</t>
         </is>
       </c>
       <c r="C236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D236" t="n">
         <v>0</v>
@@ -9168,29 +9871,32 @@
         <v>0</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J236" t="n">
         <v>0</v>
       </c>
       <c r="K236" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L236" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Again, because not everyone has access, not everyone’s going to ask state government to provide them or their local faith-based organization to make them and get them to them, offer face coverings and gloves to customers entering your place of business.</t>
+          <t>Those of you who could achieve this will be making a difference in New Mexico.</t>
         </is>
       </c>
       <c r="C237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D237" t="n">
         <v>0</v>
@@ -9202,32 +9908,35 @@
         <v>0</v>
       </c>
       <c r="G237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
       </c>
       <c r="I237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J237" t="n">
         <v>0</v>
       </c>
       <c r="K237" t="n">
+        <v>0</v>
+      </c>
+      <c r="L237" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Again, these best practices go a long way to safeguard the state and to lower transmission rates.</t>
+          <t>Again, because not everyone has access, not everyone’s going to ask state government to provide them or their local faith-based organization to make them and get them to them, offer face coverings and gloves to customers entering your place of business.</t>
         </is>
       </c>
       <c r="C238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D238" t="n">
         <v>0</v>
@@ -9251,20 +9960,23 @@
         <v>0</v>
       </c>
       <c r="K238" t="n">
+        <v>0</v>
+      </c>
+      <c r="L238" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>All right, I think this may be, Oh, do your part.</t>
+          <t>Again, these best practices go a long way to safeguard the state and to lower transmission rates.</t>
         </is>
       </c>
       <c r="C239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D239" t="n">
         <v>0</v>
@@ -9279,29 +9991,32 @@
         <v>0</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K239" t="n">
+        <v>0</v>
+      </c>
+      <c r="L239" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Okay.</t>
+          <t>All right, I think this may be, Oh, do your part.</t>
         </is>
       </c>
       <c r="C240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D240" t="n">
         <v>0</v>
@@ -9325,16 +10040,19 @@
         <v>0</v>
       </c>
       <c r="K240" t="n">
+        <v>0</v>
+      </c>
+      <c r="L240" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>We’re relaxing restrictions, we’re trying to move safely, productively, prudently, and quickly.</t>
+          <t>Okay.</t>
         </is>
       </c>
       <c r="C241" t="n">
@@ -9350,10 +10068,10 @@
         <v>0</v>
       </c>
       <c r="G241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -9362,20 +10080,23 @@
         <v>0</v>
       </c>
       <c r="K241" t="n">
+        <v>0</v>
+      </c>
+      <c r="L241" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Quickly, open to interpretation, must be tied to evidence-based work modeling, but if you do your part, if consumers work to support businesses on these reopening standards and best practices guidelines, then we can really do this.</t>
+          <t>We’re relaxing restrictions, we’re trying to move safely, productively, prudently, and quickly.</t>
         </is>
       </c>
       <c r="C242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D242" t="n">
         <v>0</v>
@@ -9390,29 +10111,32 @@
         <v>0</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K242" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L242" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>If the data shows that we are backsliding, then we have to take another course.</t>
+          <t>Quickly, open to interpretation, must be tied to evidence-based work modeling, but if you do your part, if consumers work to support businesses on these reopening standards and best practices guidelines, then we can really do this.</t>
         </is>
       </c>
       <c r="C243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D243" t="n">
         <v>0</v>
@@ -9430,22 +10154,25 @@
         <v>0</v>
       </c>
       <c r="I243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K243" t="n">
+        <v>0</v>
+      </c>
+      <c r="L243" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Now, I would not just open up business or relax restrictions, and neither would the recovery council just because another state is doing it or because, frankly, we haven’t even met the White House’s, the president’s 14-day declining case standards, right.</t>
+          <t>If the data shows that we are backsliding, then we have to take another course.</t>
         </is>
       </c>
       <c r="C244" t="n">
@@ -9458,13 +10185,13 @@
         <v>0</v>
       </c>
       <c r="F244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G244" t="n">
         <v>0</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -9473,26 +10200,29 @@
         <v>0</v>
       </c>
       <c r="K244" t="n">
+        <v>0</v>
+      </c>
+      <c r="L244" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>There’s a lot of different standards that you could apply.</t>
+          <t>Now, I would not just open up business or relax restrictions, and neither would the recovery council just because another state is doing it or because, frankly, we haven’t even met the White House’s, the president’s 14-day declining case standards, right.</t>
         </is>
       </c>
       <c r="C245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D245" t="n">
         <v>0</v>
       </c>
       <c r="E245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F245" t="n">
         <v>0</v>
@@ -9504,22 +10234,25 @@
         <v>0</v>
       </c>
       <c r="I245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J245" t="n">
         <v>0</v>
       </c>
       <c r="K245" t="n">
+        <v>0</v>
+      </c>
+      <c r="L245" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Flattening of the curve, protecting our healthcare workforce and surge, making sure we have enough healthcare services to meet new Mexico’s needs.</t>
+          <t>There’s a lot of different standards that you could apply.</t>
         </is>
       </c>
       <c r="C246" t="n">
@@ -9535,10 +10268,10 @@
         <v>0</v>
       </c>
       <c r="G246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -9547,20 +10280,23 @@
         <v>0</v>
       </c>
       <c r="K246" t="n">
+        <v>0</v>
+      </c>
+      <c r="L246" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>That’s what we said we would use.</t>
+          <t>Flattening of the curve, protecting our healthcare workforce and surge, making sure we have enough healthcare services to meet new Mexico’s needs.</t>
         </is>
       </c>
       <c r="C247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D247" t="n">
         <v>0</v>
@@ -9572,28 +10308,31 @@
         <v>0</v>
       </c>
       <c r="G247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J247" t="n">
         <v>0</v>
       </c>
       <c r="K247" t="n">
+        <v>0</v>
+      </c>
+      <c r="L247" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>That’s what we’re using, but if that begins to shift and we have to take another course.</t>
+          <t>That’s what we said we would use.</t>
         </is>
       </c>
       <c r="C248" t="n">
@@ -9621,16 +10360,19 @@
         <v>0</v>
       </c>
       <c r="K248" t="n">
+        <v>0</v>
+      </c>
+      <c r="L248" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>That course causes more economic damage than the prudent, steady course we’re proposing today.</t>
+          <t>That’s what we’re using, but if that begins to shift and we have to take another course.</t>
         </is>
       </c>
       <c r="C249" t="n">
@@ -9658,16 +10400,19 @@
         <v>0</v>
       </c>
       <c r="K249" t="n">
+        <v>0</v>
+      </c>
+      <c r="L249" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>All depends on New Mexicans.</t>
+          <t>That course causes more economic damage than the prudent, steady course we’re proposing today.</t>
         </is>
       </c>
       <c r="C250" t="n">
@@ -9695,20 +10440,23 @@
         <v>0</v>
       </c>
       <c r="K250" t="n">
+        <v>0</v>
+      </c>
+      <c r="L250" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>This again requires discipline.</t>
+          <t>All depends on New Mexicans.</t>
         </is>
       </c>
       <c r="C251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D251" t="n">
         <v>0</v>
@@ -9723,7 +10471,7 @@
         <v>0</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -9732,20 +10480,23 @@
         <v>0</v>
       </c>
       <c r="K251" t="n">
+        <v>0</v>
+      </c>
+      <c r="L251" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>It isn’t easier; now it’s harder, and I just don’t think that people, as I watch what’s going on around the country, are hearing that message.</t>
+          <t>This again requires discipline.</t>
         </is>
       </c>
       <c r="C252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D252" t="n">
         <v>0</v>
@@ -9754,35 +10505,38 @@
         <v>0</v>
       </c>
       <c r="F252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G252" t="n">
         <v>0</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J252" t="n">
         <v>0</v>
       </c>
       <c r="K252" t="n">
+        <v>0</v>
+      </c>
+      <c r="L252" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>They hear, “We’re open.</t>
+          <t>It isn’t easier; now it’s harder, and I just don’t think that people, as I watch what’s going on around the country, are hearing that message.</t>
         </is>
       </c>
       <c r="C253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D253" t="n">
         <v>0</v>
@@ -9791,35 +10545,38 @@
         <v>0</v>
       </c>
       <c r="F253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
       </c>
       <c r="I253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J253" t="n">
         <v>0</v>
       </c>
       <c r="K253" t="n">
+        <v>0</v>
+      </c>
+      <c r="L253" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>They don’t hear that you have a higher burden to bear because you’re responsible in this social contract to mitigate spread.</t>
+          <t>They hear, “We’re open.</t>
         </is>
       </c>
       <c r="C254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D254" t="n">
         <v>0</v>
@@ -9831,10 +10588,10 @@
         <v>0</v>
       </c>
       <c r="G254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -9843,20 +10600,23 @@
         <v>0</v>
       </c>
       <c r="K254" t="n">
+        <v>0</v>
+      </c>
+      <c r="L254" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>I know that you can do it.</t>
+          <t>They don’t hear that you have a higher burden to bear because you’re responsible in this social contract to mitigate spread.</t>
         </is>
       </c>
       <c r="C255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D255" t="n">
         <v>0</v>
@@ -9868,32 +10628,35 @@
         <v>0</v>
       </c>
       <c r="G255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
       </c>
       <c r="I255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J255" t="n">
         <v>0</v>
       </c>
       <c r="K255" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L255" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>I know that we can do it.</t>
+          <t>I know that you can do it.</t>
         </is>
       </c>
       <c r="C256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D256" t="n">
         <v>0</v>
@@ -9917,20 +10680,23 @@
         <v>0</v>
       </c>
       <c r="K256" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L256" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>We’re demonstrating.</t>
+          <t>I know that we can do it.</t>
         </is>
       </c>
       <c r="C257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D257" t="n">
         <v>0</v>
@@ -9954,16 +10720,19 @@
         <v>0</v>
       </c>
       <c r="K257" t="n">
+        <v>0</v>
+      </c>
+      <c r="L257" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>I’m proud of the state.</t>
+          <t>We’re demonstrating.</t>
         </is>
       </c>
       <c r="C258" t="n">
@@ -9982,7 +10751,7 @@
         <v>0</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -9991,20 +10760,23 @@
         <v>0</v>
       </c>
       <c r="K258" t="n">
+        <v>0</v>
+      </c>
+      <c r="L258" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>We’re concerned about our Northwest region and our neighbors.</t>
+          <t>I’m proud of the state.</t>
         </is>
       </c>
       <c r="C259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D259" t="n">
         <v>0</v>
@@ -10016,7 +10788,7 @@
         <v>0</v>
       </c>
       <c r="G259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -10028,20 +10800,23 @@
         <v>0</v>
       </c>
       <c r="K259" t="n">
+        <v>0</v>
+      </c>
+      <c r="L259" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>We’re going to continue to lean in to support them and help them through their higher transmission rates, and we believe we can also do incredible work there still to mitigate transmission and to save lives.</t>
+          <t>We’re concerned about our Northwest region and our neighbors.</t>
         </is>
       </c>
       <c r="C260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D260" t="n">
         <v>0</v>
@@ -10062,23 +10837,26 @@
         <v>0</v>
       </c>
       <c r="J260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K260" t="n">
+        <v>0</v>
+      </c>
+      <c r="L260" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>I know this was a longer press conference.</t>
+          <t>We’re going to continue to lean in to support them and help them through their higher transmission rates, and we believe we can also do incredible work there still to mitigate transmission and to save lives.</t>
         </is>
       </c>
       <c r="C261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D261" t="n">
         <v>0</v>
@@ -10096,22 +10874,25 @@
         <v>0</v>
       </c>
       <c r="I261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J261" t="n">
         <v>0</v>
       </c>
       <c r="K261" t="n">
+        <v>0</v>
+      </c>
+      <c r="L261" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>When we have a huge new shift in where we are and where we’re going, you should expect that to occur.</t>
+          <t>I know this was a longer press conference.</t>
         </is>
       </c>
       <c r="C262" t="n">
@@ -10127,10 +10908,10 @@
         <v>0</v>
       </c>
       <c r="G262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -10139,20 +10920,23 @@
         <v>0</v>
       </c>
       <c r="K262" t="n">
+        <v>0</v>
+      </c>
+      <c r="L262" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>I’m grateful that it gets this coverage and that people tune in and watch.</t>
+          <t>When we have a huge new shift in where we are and where we’re going, you should expect that to occur.</t>
         </is>
       </c>
       <c r="C263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D263" t="n">
         <v>0</v>
@@ -10170,22 +10954,25 @@
         <v>0</v>
       </c>
       <c r="I263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J263" t="n">
         <v>0</v>
       </c>
       <c r="K263" t="n">
+        <v>0</v>
+      </c>
+      <c r="L263" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>It’s really important.</t>
+          <t>I’m grateful that it gets this coverage and that people tune in and watch.</t>
         </is>
       </c>
       <c r="C264" t="n">
@@ -10204,7 +10991,7 @@
         <v>0</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -10213,20 +11000,23 @@
         <v>0</v>
       </c>
       <c r="K264" t="n">
+        <v>0</v>
+      </c>
+      <c r="L264" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>We’re all in this together, New Mexico.</t>
+          <t>It’s really important.</t>
         </is>
       </c>
       <c r="C265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D265" t="n">
         <v>0</v>
@@ -10250,20 +11040,23 @@
         <v>0</v>
       </c>
       <c r="K265" t="n">
+        <v>0</v>
+      </c>
+      <c r="L265" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Thank you, and we are ready, Nora, to take questions.</t>
+          <t>We’re all in this together, New Mexico.</t>
         </is>
       </c>
       <c r="C266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D266" t="n">
         <v>0</v>
@@ -10281,20 +11074,27 @@
         <v>0</v>
       </c>
       <c r="I266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J266" t="n">
         <v>0</v>
       </c>
       <c r="K266" t="n">
+        <v>0</v>
+      </c>
+      <c r="L266" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="B267" t="inlineStr"/>
+        <v>265</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Thank you, and we are ready, Nora, to take questions.</t>
+        </is>
+      </c>
       <c r="C267" t="n">
         <v>0</v>
       </c>
@@ -10320,12 +11120,15 @@
         <v>0</v>
       </c>
       <c r="K267" t="n">
+        <v>0</v>
+      </c>
+      <c r="L267" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B268" t="inlineStr"/>
       <c r="C268" t="n">
@@ -10355,10 +11158,13 @@
       <c r="K268" t="n">
         <v>0</v>
       </c>
+      <c r="L268" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B269" t="inlineStr"/>
       <c r="C269" t="n">
@@ -10388,10 +11194,13 @@
       <c r="K269" t="n">
         <v>0</v>
       </c>
+      <c r="L269" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B270" t="inlineStr"/>
       <c r="C270" t="n">
@@ -10421,10 +11230,13 @@
       <c r="K270" t="n">
         <v>0</v>
       </c>
+      <c r="L270" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B271" t="inlineStr"/>
       <c r="C271" t="n">
@@ -10454,10 +11266,13 @@
       <c r="K271" t="n">
         <v>0</v>
       </c>
+      <c r="L271" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B272" t="inlineStr"/>
       <c r="C272" t="n">
@@ -10487,10 +11302,13 @@
       <c r="K272" t="n">
         <v>0</v>
       </c>
+      <c r="L272" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B273" t="inlineStr"/>
       <c r="C273" t="n">
@@ -10520,10 +11338,13 @@
       <c r="K273" t="n">
         <v>0</v>
       </c>
+      <c r="L273" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B274" t="inlineStr"/>
       <c r="C274" t="n">
@@ -10553,10 +11374,13 @@
       <c r="K274" t="n">
         <v>0</v>
       </c>
+      <c r="L274" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B275" t="inlineStr"/>
       <c r="C275" t="n">
@@ -10586,10 +11410,13 @@
       <c r="K275" t="n">
         <v>0</v>
       </c>
+      <c r="L275" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B276" t="inlineStr"/>
       <c r="C276" t="n">
@@ -10619,10 +11446,13 @@
       <c r="K276" t="n">
         <v>0</v>
       </c>
+      <c r="L276" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B277" t="inlineStr"/>
       <c r="C277" t="n">
@@ -10652,10 +11482,13 @@
       <c r="K277" t="n">
         <v>0</v>
       </c>
+      <c r="L277" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B278" t="inlineStr"/>
       <c r="C278" t="n">
@@ -10685,10 +11518,13 @@
       <c r="K278" t="n">
         <v>0</v>
       </c>
+      <c r="L278" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B279" t="inlineStr"/>
       <c r="C279" t="n">
@@ -10718,10 +11554,13 @@
       <c r="K279" t="n">
         <v>0</v>
       </c>
+      <c r="L279" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B280" t="inlineStr"/>
       <c r="C280" t="n">
@@ -10751,10 +11590,13 @@
       <c r="K280" t="n">
         <v>0</v>
       </c>
+      <c r="L280" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B281" t="inlineStr"/>
       <c r="C281" t="n">
@@ -10784,10 +11626,13 @@
       <c r="K281" t="n">
         <v>0</v>
       </c>
+      <c r="L281" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B282" t="inlineStr"/>
       <c r="C282" t="n">
@@ -10817,10 +11662,13 @@
       <c r="K282" t="n">
         <v>0</v>
       </c>
+      <c r="L282" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B283" t="inlineStr"/>
       <c r="C283" t="n">
@@ -10850,10 +11698,13 @@
       <c r="K283" t="n">
         <v>0</v>
       </c>
+      <c r="L283" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B284" t="inlineStr"/>
       <c r="C284" t="n">
@@ -10883,10 +11734,13 @@
       <c r="K284" t="n">
         <v>0</v>
       </c>
+      <c r="L284" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B285" t="inlineStr"/>
       <c r="C285" t="n">
@@ -10916,10 +11770,13 @@
       <c r="K285" t="n">
         <v>0</v>
       </c>
+      <c r="L285" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B286" t="inlineStr"/>
       <c r="C286" t="n">
@@ -10949,10 +11806,13 @@
       <c r="K286" t="n">
         <v>0</v>
       </c>
+      <c r="L286" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B287" t="inlineStr"/>
       <c r="C287" t="n">
@@ -10982,10 +11842,13 @@
       <c r="K287" t="n">
         <v>0</v>
       </c>
+      <c r="L287" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B288" t="inlineStr"/>
       <c r="C288" t="n">
@@ -11015,10 +11878,13 @@
       <c r="K288" t="n">
         <v>0</v>
       </c>
+      <c r="L288" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B289" t="inlineStr"/>
       <c r="C289" t="n">
@@ -11048,10 +11914,13 @@
       <c r="K289" t="n">
         <v>0</v>
       </c>
+      <c r="L289" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B290" t="inlineStr"/>
       <c r="C290" t="n">
@@ -11081,10 +11950,13 @@
       <c r="K290" t="n">
         <v>0</v>
       </c>
+      <c r="L290" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B291" t="inlineStr"/>
       <c r="C291" t="n">
@@ -11114,10 +11986,13 @@
       <c r="K291" t="n">
         <v>0</v>
       </c>
+      <c r="L291" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B292" t="inlineStr"/>
       <c r="C292" t="n">
@@ -11147,10 +12022,13 @@
       <c r="K292" t="n">
         <v>0</v>
       </c>
+      <c r="L292" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B293" t="inlineStr"/>
       <c r="C293" t="n">
@@ -11180,10 +12058,13 @@
       <c r="K293" t="n">
         <v>0</v>
       </c>
+      <c r="L293" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B294" t="inlineStr"/>
       <c r="C294" t="n">
@@ -11213,10 +12094,13 @@
       <c r="K294" t="n">
         <v>0</v>
       </c>
+      <c r="L294" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B295" t="inlineStr"/>
       <c r="C295" t="n">
@@ -11246,10 +12130,13 @@
       <c r="K295" t="n">
         <v>0</v>
       </c>
+      <c r="L295" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B296" t="inlineStr"/>
       <c r="C296" t="n">
@@ -11279,10 +12166,13 @@
       <c r="K296" t="n">
         <v>0</v>
       </c>
+      <c r="L296" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B297" t="inlineStr"/>
       <c r="C297" t="n">
@@ -11312,10 +12202,13 @@
       <c r="K297" t="n">
         <v>0</v>
       </c>
+      <c r="L297" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B298" t="inlineStr"/>
       <c r="C298" t="n">
@@ -11343,6 +12236,45 @@
         <v>0</v>
       </c>
       <c r="K298" t="n">
+        <v>0</v>
+      </c>
+      <c r="L298" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="inlineStr"/>
+      <c r="C299" t="n">
+        <v>0</v>
+      </c>
+      <c r="D299" t="n">
+        <v>0</v>
+      </c>
+      <c r="E299" t="n">
+        <v>0</v>
+      </c>
+      <c r="F299" t="n">
+        <v>0</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0</v>
+      </c>
+      <c r="H299" t="n">
+        <v>0</v>
+      </c>
+      <c r="I299" t="n">
+        <v>0</v>
+      </c>
+      <c r="J299" t="n">
+        <v>0</v>
+      </c>
+      <c r="K299" t="n">
+        <v>0</v>
+      </c>
+      <c r="L299" t="n">
         <v>0</v>
       </c>
     </row>

--- a/test_speeches/predictions/Coding_Differneces_5_AI.xlsx
+++ b/test_speeches/predictions/Coding_Differneces_5_AI.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Metaphor/Similie</t>
+          <t>Metaphor/Simile</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -456,7 +456,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Stories/Anecdotes</t>
+          <t>Stories / anecdotes</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -466,27 +466,27 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Lists</t>
+          <t xml:space="preserve">Lists / Repetition </t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Repetition</t>
+          <t>Moral conviction</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Moral_conviction</t>
+          <t>Sentiment of the collective</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Sentiment_of_the_collective</t>
+          <t>Ambitious goals / Setting high expectations</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Setting_high_expectations</t>
+          <t>Confidence in goals</t>
         </is>
       </c>
     </row>
